--- a/Datos_Reservas.xlsx
+++ b/Datos_Reservas.xlsx
@@ -1,40 +1,70 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/92f6345f5ffe4c96/PROGRAMACION/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_2B59C097555AD1A7FAAE1593431510344D078EFA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{384A1B5E-4FE9-408F-8C0E-3F3143AB92E1}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Usuario</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Capacidad</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -66,82 +96,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -429,142 +401,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="21.5703125" customWidth="1" min="1" max="1"/>
-    <col width="19.28515625" customWidth="1" min="2" max="2"/>
-    <col width="27.140625" customWidth="1" min="3" max="3"/>
+    <col min="1" max="1" width="7.77734375" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Usuario</t>
-        </is>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Contraseña</t>
-        </is>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Tipo</t>
-        </is>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Cliente</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>333</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>333</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Cliente</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Cliente</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>rosana</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>hola</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Cliente</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>emanuel</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>ema</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Cliente</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>igna</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Cliente</t>
-        </is>
-      </c>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Datos_Reservas.xlsx
+++ b/Datos_Reservas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/92f6345f5ffe4c96/PROGRAMACION/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/92f6345f5ffe4c96/Programacion I/PROGRAMACION  TP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_2B59C097555AD1A7FAAE1593431510344D078EFA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{384A1B5E-4FE9-408F-8C0E-3F3143AB92E1}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_2B59C097555AD1A7FAAE1593431510344D078EFA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D747E47-A430-40AF-81B1-539699A784D2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -410,8 +410,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.77734375" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">

--- a/Datos_Reservas.xlsx
+++ b/Datos_Reservas.xlsx
@@ -1,63 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/92f6345f5ffe4c96/Programacion I/PROGRAMACION  TP/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_2B59C097555AD1A7FAAE1593431510344D078EFA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D747E47-A430-40AF-81B1-539699A784D2}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Usuario</t>
-  </si>
-  <si>
-    <t>Estado</t>
-  </si>
-  <si>
-    <t>Capacidad</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -97,23 +75,82 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -401,37 +438,136 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" customWidth="1"/>
+    <col width="13.44140625" customWidth="1" min="1" max="1"/>
+    <col width="11.44140625" customWidth="1" min="2" max="2"/>
+    <col width="13.21875" customWidth="1" min="3" max="3"/>
+    <col width="12.44140625" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Usuario</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Estado</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Capacidad</t>
+        </is>
+      </c>
+    </row>
+    <row r="2"/>
+    <row r="3"/>
+    <row r="4"/>
+    <row r="5"/>
+    <row r="6"/>
+    <row r="7"/>
+    <row r="8"/>
+    <row r="9"/>
+    <row r="10"/>
+    <row r="11">
+      <c r="H11" s="2" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Libre</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Libre</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H11" s="2"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Libre</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Libre</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Libre</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>6</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Libre</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Datos_Reservas.xlsx
+++ b/Datos_Reservas.xlsx
@@ -443,7 +443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
@@ -513,26 +513,28 @@
           <t>Libre</t>
         </is>
       </c>
-      <c r="D13" t="n">
-        <v>4</v>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
+        <v>4</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Libre</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>3</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Libre</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -540,7 +542,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -552,21 +554,40 @@
           <t>Libre</t>
         </is>
       </c>
-      <c r="D16" t="n">
-        <v>5</v>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
           <t>Libre</t>
         </is>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
         <v>8</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Libre</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Datos_Reservas.xlsx
+++ b/Datos_Reservas.xlsx
@@ -16,20 +16,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -74,10 +66,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,10 +434,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -479,114 +470,34 @@
         </is>
       </c>
     </row>
-    <row r="2"/>
-    <row r="3"/>
-    <row r="4"/>
-    <row r="5"/>
-    <row r="6"/>
-    <row r="7"/>
-    <row r="8"/>
-    <row r="9"/>
-    <row r="10"/>
-    <row r="11">
-      <c r="H11" s="2" t="n"/>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Libre</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="inlineStr">
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
         <is>
           <t>Libre</t>
         </is>
       </c>
-      <c r="D12" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Libre</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>4</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Libre</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>6</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Libre</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Libre</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>7</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Libre</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>8</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Libre</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>45</t>
         </is>
       </c>
     </row>

--- a/Datos_Reservas.xlsx
+++ b/Datos_Reservas.xlsx
@@ -434,10 +434,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="D4" sqref="A2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -472,7 +472,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -487,15 +487,45 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr"/>
+        <v>3</v>
+      </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>Libre</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Libre</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Libre</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>4</t>
         </is>

--- a/Datos_Reservas.xlsx
+++ b/Datos_Reservas.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D4" sqref="A2:D4"/>
@@ -519,7 +519,6 @@
       <c r="A5" t="n">
         <v>1</v>
       </c>
-      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>Libre</t>
@@ -528,6 +527,37 @@
       <c r="D5" t="inlineStr">
         <is>
           <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Libre</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Libre</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>

--- a/Datos_Reservas.xlsx
+++ b/Datos_Reservas.xlsx
@@ -1,40 +1,67 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/92f6345f5ffe4c96/Programacion I/PROGRAMACION  TP/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_2B59C097559ADE6AC8BCDF304C1510344D078E56" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6C5F785-E6FF-4FD4-991F-7E9C8596441B}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Usuario</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Capacidad</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="2" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -67,81 +94,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -429,136 +397,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="A2:D4"/>
+      <selection activeCell="D2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
-  <cols>
-    <col width="13.44140625" customWidth="1" min="1" max="1"/>
-    <col width="11.44140625" customWidth="1" min="2" max="2"/>
-    <col width="13.21875" customWidth="1" min="3" max="3"/>
-    <col width="12.44140625" customWidth="1" min="4" max="4"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Usuario</t>
-        </is>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Estado</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Capacidad</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Libre</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="D1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Libre</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>5</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Libre</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Libre</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>6</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Libre</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>7</v>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Libre</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Datos_Reservas.xlsx
+++ b/Datos_Reservas.xlsx
@@ -1,60 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/92f6345f5ffe4c96/Programacion I/PROGRAMACION  TP/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_2B59C097559ADE6AC8BCDF304C1510344D078E56" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6C5F785-E6FF-4FD4-991F-7E9C8596441B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Usuario</t>
-  </si>
-  <si>
-    <t>Estado</t>
-  </si>
-  <si>
-    <t>Capacidad</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -94,22 +67,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -397,27 +429,70 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Usuario</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Estado</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Capacidad</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Ocupada</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>3</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Libre</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Datos_Reservas.xlsx
+++ b/Datos_Reservas.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="A2:D2"/>
@@ -468,14 +468,9 @@
       <c r="A2" t="n">
         <v>2</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Ocupada</t>
+          <t>Libre</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -493,6 +488,35 @@
       </c>
       <c r="D3" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Libre</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>10</v>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Libre</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Datos_Reservas.xlsx
+++ b/Datos_Reservas.xlsx
@@ -2,14 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -25,21 +26,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -47,31 +42,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -434,31 +413,31 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="A2:D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Usuario</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Estado</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Capacidad</t>
         </is>
@@ -466,8 +445,9 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>Libre</t>
@@ -479,8 +459,9 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>Libre</t>
@@ -492,8 +473,9 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>Libre</t>
@@ -505,7 +487,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
@@ -513,10 +495,78 @@
           <t>Libre</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Libre</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Libre</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Libre</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Libre</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Libre</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Datos_Reservas.xlsx
+++ b/Datos_Reservas.xlsx
@@ -447,7 +447,6 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>Libre</t>
@@ -461,7 +460,6 @@
       <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>Libre</t>
@@ -475,7 +473,6 @@
       <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>Libre</t>
@@ -489,7 +486,6 @@
       <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>Libre</t>
@@ -501,9 +497,8 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr"/>
+        <v>6</v>
+      </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>Libre</t>
@@ -515,9 +510,8 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr"/>
+        <v>7</v>
+      </c>
       <c r="C7" t="inlineStr">
         <is>
           <t>Libre</t>
@@ -529,9 +523,8 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr"/>
+        <v>8</v>
+      </c>
       <c r="C8" t="inlineStr">
         <is>
           <t>Libre</t>
@@ -543,9 +536,8 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="inlineStr"/>
+        <v>9</v>
+      </c>
       <c r="C9" t="inlineStr">
         <is>
           <t>Libre</t>
@@ -557,16 +549,17 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="inlineStr"/>
+        <v>5</v>
+      </c>
       <c r="C10" t="inlineStr">
         <is>
           <t>Libre</t>
         </is>
       </c>
-      <c r="D10" t="n">
-        <v>4</v>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Datos_Reservas.xlsx
+++ b/Datos_Reservas.xlsx
@@ -512,9 +512,14 @@
       <c r="A7" t="n">
         <v>6</v>
       </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Libre</t>
+          <t>Ocupada</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -525,7 +530,6 @@
       <c r="A8" t="n">
         <v>8</v>
       </c>
-      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>Libre</t>

--- a/Datos_Reservas.xlsx
+++ b/Datos_Reservas.xlsx
@@ -512,14 +512,10 @@
       <c r="A7" t="n">
         <v>6</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Ocupada</t>
+          <t>Libre</t>
         </is>
       </c>
       <c r="D7" t="n">

--- a/Datos_Reservas.xlsx
+++ b/Datos_Reservas.xlsx
@@ -447,6 +447,7 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>Libre</t>
@@ -512,7 +513,6 @@
       <c r="A7" t="n">
         <v>6</v>
       </c>
-      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>Libre</t>

--- a/Datos_Reservas.xlsx
+++ b/Datos_Reservas.xlsx
@@ -447,7 +447,6 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>Libre</t>
@@ -498,7 +497,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -511,7 +510,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -589,7 +588,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -598,7 +597,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
     </row>
